--- a/500all/speech_level/speeches_CHRG-114hhrg21646.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21646.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. We will call the Subcommittee on Water Resources and Environment of the Committee on Transportation and Infrastructure to order.    Today we are having a hearing to review the recently completed United States Army Corps of Engineers Chief's Reports.    I would like to welcome everybody to the hearing.    This past May, the Committee on Transportation and Infrastructure unanimously passed H.R. 5303, the Water Resources Development Act of 2016. This legislation builds upon the success of WRRDA 2014, one of the most policy- and reform-focused pieces of legislation related to the U.S. Army Corps of Engineers.    H.R. 5303 is a bipartisan bill that was developed by working across the aisle to achieve a common goal of investing in America's future. H.R. 5303 contains no earmarks, as WRRDA 2014 did, and strengthens our water transportation networks to promote competitiveness, prosperity, and economic growth.    This committee held numerous public roundtables and official hearings in developing this legislation. We have heard from the public, industry, stakeholders, and from our colleagues in Congress while developing this legislation and have incorporated their ideas into H.R. 5303.    I appreciate Chairman Shuster, Ranking Member DeFazio, and Mrs. Napolitano's bipartisan work to address the vital need for America.    Today we are holding a hearing to review two Army Corps of Engineers reports that have been delivered to Congress since this subcommittee met last in May of this year. We intend to review these proposed projects to ensure they meet our criteria for authorization.    Additionally, the Corps of Engineers has delivered to Congress two Post-Authorization Change Reports recommending modifications to ongoing construction projects at Swope Park, Missouri, and Picayune Strand, Florida.    These Chief's Reports and Post-Authorization Change Reports address the missions of the Corps and balance economic development and environmental considerations equally.    The Corps of Engineers constructs projects for the purposes of navigation, flood control, shoreline protection, hydroelectric power, recreation, environmental protection, restoration and enhancement, and fish and wildlife mitigation.    The Corps of Engineers planning process considers economic development and environmental needs as it addresses water resource challenges. This rigorous planning process addresses the Nation's water resources needs by exploring a full range of alternatives in developing solutions that meet both national and local needs.    The two Chief's Reports and two Post-Authorization Change Reports we are discussing today are the result of this rigorous planning process. These projects are proposed by the non-Federal interests in cooperation and consultation with the Corps. All of these Chief's Reports and Post-Authorization Change Reports, while tailored to meet locally developed needs, have national economic and environmental benefits.    I would like to welcome General Jackson for being here today. It is an important hearing today, and thank you for your hard work on both the Upper Ohio River and southwest coastal Louisiana's Chief's Reports.    And before I move on, I do want to ask unanimous consent that Representative Rick Larsen be permitted to join this subcommittee for today's hearing, if there is no objection.    Without objection, so ordered.    At this time I recognize my colleague from California, Mrs. Napolitano, for any comments she may have.</t>
   </si>
   <si>
     <t>400290</t>
   </si>
   <si>
-    <t>Grace F. Napolitano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Napolitano. Yes, thank you, Mr. Chairman.    Today's hearing will review the Chief's Reports and Post-Authorization Change Reports that have been completed and submitted to Congress since our hearing in May of this year. We applaud the chairman's willingness to make sure that all of the pending Chief's Reports are eligible for inclusion in the new Water Resources Reform and Development Act and for the decision to hold this hearing today.    Since February, the committee has received completed Corps feasibility studies on the southwest coastal Louisiana project. In addition to the project, it brings the total to 29 pending Chief's Reports by the upcoming Water Resources Reform and Development Act. These important projects representing a diversity of projects' purposes and geographic regions are the next general of water infrastructure investment for our Nation. They all help to maintain and it helps national, regional and local economies in a variety of ways.    As noted in our last hearing, the range of pending projects include ecosystem restoration projects ranging from Los Angeles River, California, to the Central Everglades in Florida; navigation projects, such as the project for the Port of Brownsville, Texas; and flood control projects, such as the American River common features project, also in California.    Again, Mr. Chairman, I am pleased that we are discussing the pending Chief's Reports, and I would remind the chairman of the constraints we continue to face in utilizing Corps expertise on a host of other issues within the Corps authorities.    While Chairman Shuster has been accommodating to many Members on both sides of the aisle, including new Corps projects and studies in the pending water resources bill, I also recognize the constraints placed on him and this committee by the ill-conceived moratorium on infrastructure investment of the Republican Conference.    To that end, I want to call to this committee's attention a bipartisan House resolution, H.R. 813, introduced by a gentleman from Florida, Mr. Rooney, that would exclude water resources development projects of the Corps from the definition of a congressional earmark. This is a first good step to what I hope is a refocus of Congress on this wise infrastructure investment throughout the Nation. Regardless of the party, we should all support robust investment in our water resources and our water infrastructure.    For too long we have been simply closing our eyes to the condition of our Nation's infrastructure as it crumbles around us. Now in places like Flint, MI, Toledo, OH, and in my home State in California, we face what decades ago should have been unthinkable: questions about the continued reliability and safety of our water systems and water-related infrastructure.    Mr. Chairman, this bill is now past due. This is a serious issue for our States and our local communities for the safety and well-being of our families and for our overall quality of life. Yet day after day no action is taken in this Congress to address these issues. Mr. Chairman, we need to change that.    Thank you, Mr. Chairman, for today's hearing, and I welcome General Jackson for his testimony.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Chairman Gibbs, and thank you Ranking Member Napolitano for holding this hearing today.    This is a critical part of getting back to a 2-year, every Congress process where we conduct oversight of WRDA and authorize these projects.    So today, looking at these two Chief's Reports and these Post-Authorization Change Reports, it's critical we do this to make sure that it is in the next WRDA bill as we move forward hopefully here in the coming days and weeks or at least months.    I really want to especially thank General Jackson and General Semonite for your swift action on the Upper Ohio River, the Emsworth, Dashields, and Montgomery Locks Facilities, which is critical to the Port of Pittsburgh, one of the Nation's busiest inland ports.     I cannot thank you enough for that speed. We hope and I understand talking to General Semonite that you are doing some standardization, and you want to do that to make sure we save dollars and, again, be able to use the taxpayers' dollars wisely. And as Representative Napolitano said, and I echo her words, we are not investing the way we should in these locks and dams. It is a critical part of our infrastructure, and it is one of the reasons this country is a great economic power, going back 200 years, because of the rivers and the ports and the harbors we have in this country.    So, again, thanks for being here today, and I yield back.</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>412410</t>
   </si>
   <si>
-    <t>Daniel Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chairman, for having this hearing.    And I want to take my time just to thank General Jackson for presenting the Post-Authorization Change Report for the Picayune Strand restoration project authorized in 2007 and redesigned post Hurricane Katrina. The project will restore 55,000 acres of former residential unit in southwest Florida.    The completed project will deliver restoration benefits to 170,000 acres in Western Everglades, including downstream the Ten Thousand Islands Estuary and neighboring preserves, which will reap the benefits of the restoration with natural sheet flow.    In addition, the project will enhance the protection recovery of the iconic, though sometimes imperiled, Florida species, including the Florida panther, the wood stork and the Florida manatee. Inclusion in this change report and WRDA 2016 will be a significant milestone for the Western Everglades.    I am grateful for Army Corps and for the South Florida Water Management District for their substantial investment in resources to date and ongoing commitment to completing this component of the comprehensive Everglades restoration plan.    Thank you very much. I yield back.</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman, and I thank you and the subcommittee for allowing me to sit in since I am on the full committee but not on the subcommittee. I want to say thanks.    I want to thank General Jackson and the Army Corps team for your work as well, the local folks on the Puget Sound Nearshore Ecosystem Restoration Project, and our Washington Department of Fish and Wildlife, as well those who worked with you on this, for their work on the study.    This is going to be one of the largest habitat restoration efforts in the U.S. It is integral to our own State's Puget Sound Action Agenda, which includes recovery and protection of several fish and mammal species and the fulfillment of tribal treaty rights.    As Congress continues to work towards WRDA, I am encouraged by the progress being made on this particular report and pleased to see the report recommends construction authorization for the three tier 1 projects. You mentioned four, but you split the North Fork Skagit into two: so the Duckabush River Estuary, the Nooksack River Delta, and North Fork Skagit River Delta.    Together these projects improve title exchanges, restore freshwater tidelands, improve sound restoration activities, among other things.    I just would ask that given the importance as well of tier 2 projects at the overall restoration, I strongly support the inclusion of the tier 2 projects as well in the final Chief's Report, along with these tier 1 projects.    But I do want to, if I could, ask unanimous consent to include my full statement for the record, which also includes, Mr. Chairman, a letter I signed along with the Members of the Washington State Delegation who have districts abutting the Puget Sound, representing our complete support for this Chief's Report.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Babin. Yes, sir. Thank you, Mr. Chairman, and thank you for being here, General Jackson.    I offer my thanks to the Corps for completing the section 902 report for the Houston Ship Channel project, which I represent there at Houston Ship Channel. I understand that the purpose is essentially to update the calculated cost of the project, which was completed in 2005, and that this report reflects a project cost at the same level as the Corps reported in its original Chief's Report from 1996, which was $508 million; is this correct?    General Jackson. Yes, sir. The cost that I am showing is a total cost of $508 million.</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman.    And, General, thank you so much for your work and the Corps' work both in terms of the ongoing projects as well as the emergency situations that all of us face and you handle so very well.    A couple of things. Mr. Chairman, there is a longstanding project that has been underway. It is authorized. It is the Hamilton City project in California. It is really the first of its kind in which the environmental organizations and the Nature Conservancy are working with the Corps and the local community to establish both habitat restoration as well as flood control.    Construction is ongoing. It is an authorized project. Construction is going on as we speak. However, a couple of bumps, well, let's say pipelines and property have perhaps put this project in jeopardy, and what I would like to do is set up a situation here where if and when the Corps presents its Post-Authorization Cost Report, it can be included in the WRDA bill, which may pass the House next week and get out of Congress in the lame duck session.    So I am trying to set things up here so that we can do not an air drop, but a modification. So, General, is it the case that the Sacramento District is actually in the process now of looking at the 209 limits as it pertains to the cost of land that was actually donated, but has significantly increased because of the inflation in the area and also the discovery of the gas pipeline and how to deal with it?    General Jackson. Yes, sir, I think you are absolutely right. When we did our last certified cost estimate on this particular project in 2014, it revealed some cost growth along the lines of what you described. Unforeseen site conditions which had an impact on the current contract that required modification, and then also the increase in the real estate cost.    So what we are doing now is doing the 902 revision. The calculations and the certified cost is due in December of 2016. What the staff is telling me is that once we get that, if the costs that have been estimated are going to exceed the 902 limit, then we are going to work with the sponsor to try to descope so they can stay below the 902 and continue to move forward.    If it does not, then they will just continue to move forward. It is more of a precautionary measure to make sure we do not run out of authorization limit on this project so we can continue to move forward, given some of the bumps that we have encountered.</t>
   </si>
   <si>
@@ -205,9 +184,6 @@
     <t>412629</t>
   </si>
   <si>
-    <t>Mike Bost</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman.    General, the last time the Corps testified before this committee, I requested the Corps respond to a request for them to examine the deep flaws in the agency's environmental impact statement whenever they put it together for the next NGA West Campus, and I still have not received that and any information on that inquiry.    Let me kind of explain what all was involved with that and why that is important.    The Corps EIS was used by the agency to determine where to locate the NGA West. The EIS misidentified in that report St. Clair County, Illinois, by going with St. Clair County, Missouri, along with St. Clair County, Michigan.    In that study they wanted to bring up the environmental impact for the Osage River, which is in Missouri, not in Illinois. That was then used in making the determination. Now, let me tell you that the Secretary said that it was not the only thing used in making the determination, but in the St. Clair County, Illinois, the county owned and controlled the land that they were offering and were going to give it to the Federal Government for free.    The St. Louis site that they did look over is an already developed urban area, and it required imminent domain of 42 properties, land acquisition movements, and also the removing of historical structures. It also has some environmental impacts that we know exist from the Cold War days, and that is not even digging into the ground yet to figure that out.    This site, then the Corps EIS claimed it would be cheaper on the St. Louis site than the St. Clair County site. This makes no sense to me whatsoever, and that is why I asked for the report, and it has been quite some time to try to figure out exactly what was done here and why.    Everything I have done with the Corps since being elected has been fairly good. I mean, it really has, and believe me, I deal with you a lot because, lucky me, I have three navigable waterways in the Illinois 12 and so from that side and other projects.    But this one has really got me concerned because for a professional agency to come forward with a report like that, and of all things, the agency that they were getting the study for is geo mapping, but they cannot figure out what county or where their county is located that they need to be looking at.    So that is why I really need if you could to get that report to me and find out why.    General Jackson. Well, Congressman, thank you very much for that, and I remember very well the conversation we had when I testified last to the committee on the 17th. We received a letter from your staff shortly thereafter, maybe within a couple of days, asking for an engineering inspector general investigation into that. I am told as of yesterday it is done and they are working to schedule an out-brief to you that will lay out all of the details of the investigation and answer the questions that you posed.    So I want to let you know that that is coming to you shortly.</t>
   </si>
   <si>
@@ -221,9 +197,6 @@
   </si>
   <si>
     <t>412529</t>
-  </si>
-  <si>
-    <t>Lois Frankel</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Frankel. OK. Thank you, Mr. Chair.    I thank you to the Army Corps, General Jackson, for your work.    Just three quick things. I want to echo Mr. Webster and say thank you, thank you so much on the course modification on the Picayune Strand, the Central Everglades restoration projects. All of those restoration projects are very, very important to Florida. So thank you for that.    I wanted to remind everybody that we have this archaic law that does not allow us to buy sand from the Bahamas, and we are running out of sand in Florida, and I do not understand why we have that in the law. So I persist in saying that we have really got to do something about that.    And the third thing, which is very serious, and I brought this up with you last time, General Jackson, and, Mr. Chair, I really hope that maybe this committee could work with some of the other pertinent committees on this issue, which is the cost analysis that is used in evaluating these projects.    And I want to use an example, Port Everglades, which after 18 years finally we got the Chief's Report. Thank you for that. It was a lot of hard work, and I sat in the final review and I saw how many different people and committees, whatever, had to go through, and in that review I sat in there for hours and hours, and now I understand why almost it takes so long. Eighteen years was a little long.    Now we are learning that the Office of Management and Budget uses a completely different formula in terms of evaluating the benefit-cost analysis, and that could actually prevent the project from going forward. I would guess, although I have not looked at every single project, that this might be something that is a problem with other projects, too.    So my concern is not only that we might get our project stalled again, but my concern is this. Army Corps working on getting a Chief's Report for many, many years, with a lot of people, and it is costing millions of dollars, and you are using a different cost analysis than the Office of Management and Budget, and that just does not make any sense to me.    Because in a sense, they can say, ``All right. All of your 18 years of work,'' and now it is going to be three under the new law, ``is for naught.''    Have you given any thought to how we can try to resolve that situation?    General Jackson. Ma'am, I will tell you that we struggle with this. What is authorized in law for addressing a problem is a 1.0 BCR based on the current discount rate, and that changes very slightly over time. The budget-ability rate is different, as you described. It is based upon a 7-percent discount rate, which has a serious impact on BCR.    We have had discussions with OMB leadership about what other ways could we calculate investment decisions outside of the BCR, and so we are working with the administration to try to figure out what that might be.    And certainly this current administration and senior leadership is open to that if we can come up with something we can all live with.    If there are any good ideas that Congress has that can help us, we are all ears. We would like to be able to make it make more sense, but we also realize that the administration has tough budget decisions to make, as you do, and has to set some type of criteria to separate projects into what can and cannot be budgeted. I cannot speak for them, but we will certainly say we are working on this to the extent that we can at the levels that we are.</t>
@@ -631,11 +604,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -655,13 +626,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -683,11 +652,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -707,13 +674,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -735,11 +700,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -761,11 +724,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -787,11 +748,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -813,11 +772,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -839,11 +796,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -865,11 +820,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -891,11 +844,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -917,11 +868,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -943,11 +892,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -969,11 +916,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -993,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1019,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1047,11 +988,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1071,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1099,11 +1036,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1123,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1151,11 +1084,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1175,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1201,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1227,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1253,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1281,11 +1204,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1305,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1331,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1357,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1383,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1409,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1437,11 +1348,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1461,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1487,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1513,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1539,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1567,11 +1468,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1591,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1617,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1643,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1671,11 +1564,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1695,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1721,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1749,11 +1636,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21646.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21646.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412463</t>
   </si>
   <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibbs. We will call the Subcommittee on Water Resources and Environment of the Committee on Transportation and Infrastructure to order.    Today we are having a hearing to review the recently completed United States Army Corps of Engineers Chief's Reports.    I would like to welcome everybody to the hearing.    This past May, the Committee on Transportation and Infrastructure unanimously passed H.R. 5303, the Water Resources Development Act of 2016. This legislation builds upon the success of WRRDA 2014, one of the most policy- and reform-focused pieces of legislation related to the U.S. Army Corps of Engineers.    H.R. 5303 is a bipartisan bill that was developed by working across the aisle to achieve a common goal of investing in America's future. H.R. 5303 contains no earmarks, as WRRDA 2014 did, and strengthens our water transportation networks to promote competitiveness, prosperity, and economic growth.    This committee held numerous public roundtables and official hearings in developing this legislation. We have heard from the public, industry, stakeholders, and from our colleagues in Congress while developing this legislation and have incorporated their ideas into H.R. 5303.    I appreciate Chairman Shuster, Ranking Member DeFazio, and Mrs. Napolitano's bipartisan work to address the vital need for America.    Today we are holding a hearing to review two Army Corps of Engineers reports that have been delivered to Congress since this subcommittee met last in May of this year. We intend to review these proposed projects to ensure they meet our criteria for authorization.    Additionally, the Corps of Engineers has delivered to Congress two Post-Authorization Change Reports recommending modifications to ongoing construction projects at Swope Park, Missouri, and Picayune Strand, Florida.    These Chief's Reports and Post-Authorization Change Reports address the missions of the Corps and balance economic development and environmental considerations equally.    The Corps of Engineers constructs projects for the purposes of navigation, flood control, shoreline protection, hydroelectric power, recreation, environmental protection, restoration and enhancement, and fish and wildlife mitigation.    The Corps of Engineers planning process considers economic development and environmental needs as it addresses water resource challenges. This rigorous planning process addresses the Nation's water resources needs by exploring a full range of alternatives in developing solutions that meet both national and local needs.    The two Chief's Reports and two Post-Authorization Change Reports we are discussing today are the result of this rigorous planning process. These projects are proposed by the non-Federal interests in cooperation and consultation with the Corps. All of these Chief's Reports and Post-Authorization Change Reports, while tailored to meet locally developed needs, have national economic and environmental benefits.    I would like to welcome General Jackson for being here today. It is an important hearing today, and thank you for your hard work on both the Upper Ohio River and southwest coastal Louisiana's Chief's Reports.    And before I move on, I do want to ask unanimous consent that Representative Rick Larsen be permitted to join this subcommittee for today's hearing, if there is no objection.    Without objection, so ordered.    At this time I recognize my colleague from California, Mrs. Napolitano, for any comments she may have.</t>
   </si>
   <si>
     <t>400290</t>
   </si>
   <si>
+    <t>Napolitano</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Napolitano. Yes, thank you, Mr. Chairman.    Today's hearing will review the Chief's Reports and Post-Authorization Change Reports that have been completed and submitted to Congress since our hearing in May of this year. We applaud the chairman's willingness to make sure that all of the pending Chief's Reports are eligible for inclusion in the new Water Resources Reform and Development Act and for the decision to hold this hearing today.    Since February, the committee has received completed Corps feasibility studies on the southwest coastal Louisiana project. In addition to the project, it brings the total to 29 pending Chief's Reports by the upcoming Water Resources Reform and Development Act. These important projects representing a diversity of projects' purposes and geographic regions are the next general of water infrastructure investment for our Nation. They all help to maintain and it helps national, regional and local economies in a variety of ways.    As noted in our last hearing, the range of pending projects include ecosystem restoration projects ranging from Los Angeles River, California, to the Central Everglades in Florida; navigation projects, such as the project for the Port of Brownsville, Texas; and flood control projects, such as the American River common features project, also in California.    Again, Mr. Chairman, I am pleased that we are discussing the pending Chief's Reports, and I would remind the chairman of the constraints we continue to face in utilizing Corps expertise on a host of other issues within the Corps authorities.    While Chairman Shuster has been accommodating to many Members on both sides of the aisle, including new Corps projects and studies in the pending water resources bill, I also recognize the constraints placed on him and this committee by the ill-conceived moratorium on infrastructure investment of the Republican Conference.    To that end, I want to call to this committee's attention a bipartisan House resolution, H.R. 813, introduced by a gentleman from Florida, Mr. Rooney, that would exclude water resources development projects of the Corps from the definition of a congressional earmark. This is a first good step to what I hope is a refocus of Congress on this wise infrastructure investment throughout the Nation. Regardless of the party, we should all support robust investment in our water resources and our water infrastructure.    For too long we have been simply closing our eyes to the condition of our Nation's infrastructure as it crumbles around us. Now in places like Flint, MI, Toledo, OH, and in my home State in California, we face what decades ago should have been unthinkable: questions about the continued reliability and safety of our water systems and water-related infrastructure.    Mr. Chairman, this bill is now past due. This is a serious issue for our States and our local communities for the safety and well-being of our families and for our overall quality of life. Yet day after day no action is taken in this Congress to address these issues. Mr. Chairman, we need to change that.    Thank you, Mr. Chairman, for today's hearing, and I welcome General Jackson for his testimony.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>409888</t>
   </si>
   <si>
+    <t>Shuster</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Chairman Gibbs, and thank you Ranking Member Napolitano for holding this hearing today.    This is a critical part of getting back to a 2-year, every Congress process where we conduct oversight of WRDA and authorize these projects.    So today, looking at these two Chief's Reports and these Post-Authorization Change Reports, it's critical we do this to make sure that it is in the next WRDA bill as we move forward hopefully here in the coming days and weeks or at least months.    I really want to especially thank General Jackson and General Semonite for your swift action on the Upper Ohio River, the Emsworth, Dashields, and Montgomery Locks Facilities, which is critical to the Port of Pittsburgh, one of the Nation's busiest inland ports.     I cannot thank you enough for that speed. We hope and I understand talking to General Semonite that you are doing some standardization, and you want to do that to make sure we save dollars and, again, be able to use the taxpayers' dollars wisely. And as Representative Napolitano said, and I echo her words, we are not investing the way we should in these locks and dams. It is a critical part of our infrastructure, and it is one of the reasons this country is a great economic power, going back 200 years, because of the rivers and the ports and the harbors we have in this country.    So, again, thanks for being here today, and I yield back.</t>
   </si>
   <si>
@@ -112,6 +133,12 @@
     <t>412410</t>
   </si>
   <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chairman, for having this hearing.    And I want to take my time just to thank General Jackson for presenting the Post-Authorization Change Report for the Picayune Strand restoration project authorized in 2007 and redesigned post Hurricane Katrina. The project will restore 55,000 acres of former residential unit in southwest Florida.    The completed project will deliver restoration benefits to 170,000 acres in Western Everglades, including downstream the Ten Thousand Islands Estuary and neighboring preserves, which will reap the benefits of the restoration with natural sheet flow.    In addition, the project will enhance the protection recovery of the iconic, though sometimes imperiled, Florida species, including the Florida panther, the wood stork and the Florida manatee. Inclusion in this change report and WRDA 2016 will be a significant milestone for the Western Everglades.    I am grateful for Army Corps and for the South Florida Water Management District for their substantial investment in resources to date and ongoing commitment to completing this component of the comprehensive Everglades restoration plan.    Thank you very much. I yield back.</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman, and I thank you and the subcommittee for allowing me to sit in since I am on the full committee but not on the subcommittee. I want to say thanks.    I want to thank General Jackson and the Army Corps team for your work as well, the local folks on the Puget Sound Nearshore Ecosystem Restoration Project, and our Washington Department of Fish and Wildlife, as well those who worked with you on this, for their work on the study.    This is going to be one of the largest habitat restoration efforts in the U.S. It is integral to our own State's Puget Sound Action Agenda, which includes recovery and protection of several fish and mammal species and the fulfillment of tribal treaty rights.    As Congress continues to work towards WRDA, I am encouraged by the progress being made on this particular report and pleased to see the report recommends construction authorization for the three tier 1 projects. You mentioned four, but you split the North Fork Skagit into two: so the Duckabush River Estuary, the Nooksack River Delta, and North Fork Skagit River Delta.    Together these projects improve title exchanges, restore freshwater tidelands, improve sound restoration activities, among other things.    I just would ask that given the importance as well of tier 2 projects at the overall restoration, I strongly support the inclusion of the tier 2 projects as well in the final Chief's Report, along with these tier 1 projects.    But I do want to, if I could, ask unanimous consent to include my full statement for the record, which also includes, Mr. Chairman, a letter I signed along with the Members of the Washington State Delegation who have districts abutting the Puget Sound, representing our complete support for this Chief's Report.</t>
   </si>
   <si>
@@ -145,6 +175,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Babin. Yes, sir. Thank you, Mr. Chairman, and thank you for being here, General Jackson.    I offer my thanks to the Corps for completing the section 902 report for the Houston Ship Channel project, which I represent there at Houston Ship Channel. I understand that the purpose is essentially to update the calculated cost of the project, which was completed in 2005, and that this report reflects a project cost at the same level as the Corps reported in its original Chief's Report from 1996, which was $508 million; is this correct?    General Jackson. Yes, sir. The cost that I am showing is a total cost of $508 million.</t>
   </si>
   <si>
@@ -166,6 +202,12 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman.    And, General, thank you so much for your work and the Corps' work both in terms of the ongoing projects as well as the emergency situations that all of us face and you handle so very well.    A couple of things. Mr. Chairman, there is a longstanding project that has been underway. It is authorized. It is the Hamilton City project in California. It is really the first of its kind in which the environmental organizations and the Nature Conservancy are working with the Corps and the local community to establish both habitat restoration as well as flood control.    Construction is ongoing. It is an authorized project. Construction is going on as we speak. However, a couple of bumps, well, let's say pipelines and property have perhaps put this project in jeopardy, and what I would like to do is set up a situation here where if and when the Corps presents its Post-Authorization Cost Report, it can be included in the WRDA bill, which may pass the House next week and get out of Congress in the lame duck session.    So I am trying to set things up here so that we can do not an air drop, but a modification. So, General, is it the case that the Sacramento District is actually in the process now of looking at the 209 limits as it pertains to the cost of land that was actually donated, but has significantly increased because of the inflation in the area and also the discovery of the gas pipeline and how to deal with it?    General Jackson. Yes, sir, I think you are absolutely right. When we did our last certified cost estimate on this particular project in 2014, it revealed some cost growth along the lines of what you described. Unforeseen site conditions which had an impact on the current contract that required modification, and then also the increase in the real estate cost.    So what we are doing now is doing the 902 revision. The calculations and the certified cost is due in December of 2016. What the staff is telling me is that once we get that, if the costs that have been estimated are going to exceed the 902 limit, then we are going to work with the sponsor to try to descope so they can stay below the 902 and continue to move forward.    If it does not, then they will just continue to move forward. It is more of a precautionary measure to make sure we do not run out of authorization limit on this project so we can continue to move forward, given some of the bumps that we have encountered.</t>
   </si>
   <si>
@@ -184,6 +226,12 @@
     <t>412629</t>
   </si>
   <si>
+    <t>Bost</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman.    General, the last time the Corps testified before this committee, I requested the Corps respond to a request for them to examine the deep flaws in the agency's environmental impact statement whenever they put it together for the next NGA West Campus, and I still have not received that and any information on that inquiry.    Let me kind of explain what all was involved with that and why that is important.    The Corps EIS was used by the agency to determine where to locate the NGA West. The EIS misidentified in that report St. Clair County, Illinois, by going with St. Clair County, Missouri, along with St. Clair County, Michigan.    In that study they wanted to bring up the environmental impact for the Osage River, which is in Missouri, not in Illinois. That was then used in making the determination. Now, let me tell you that the Secretary said that it was not the only thing used in making the determination, but in the St. Clair County, Illinois, the county owned and controlled the land that they were offering and were going to give it to the Federal Government for free.    The St. Louis site that they did look over is an already developed urban area, and it required imminent domain of 42 properties, land acquisition movements, and also the removing of historical structures. It also has some environmental impacts that we know exist from the Cold War days, and that is not even digging into the ground yet to figure that out.    This site, then the Corps EIS claimed it would be cheaper on the St. Louis site than the St. Clair County site. This makes no sense to me whatsoever, and that is why I asked for the report, and it has been quite some time to try to figure out exactly what was done here and why.    Everything I have done with the Corps since being elected has been fairly good. I mean, it really has, and believe me, I deal with you a lot because, lucky me, I have three navigable waterways in the Illinois 12 and so from that side and other projects.    But this one has really got me concerned because for a professional agency to come forward with a report like that, and of all things, the agency that they were getting the study for is geo mapping, but they cannot figure out what county or where their county is located that they need to be looking at.    So that is why I really need if you could to get that report to me and find out why.    General Jackson. Well, Congressman, thank you very much for that, and I remember very well the conversation we had when I testified last to the committee on the 17th. We received a letter from your staff shortly thereafter, maybe within a couple of days, asking for an engineering inspector general investigation into that. I am told as of yesterday it is done and they are working to schedule an out-brief to you that will lay out all of the details of the investigation and answer the questions that you posed.    So I want to let you know that that is coming to you shortly.</t>
   </si>
   <si>
@@ -197,6 +245,12 @@
   </si>
   <si>
     <t>412529</t>
+  </si>
+  <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Frankel. OK. Thank you, Mr. Chair.    I thank you to the Army Corps, General Jackson, for your work.    Just three quick things. I want to echo Mr. Webster and say thank you, thank you so much on the course modification on the Picayune Strand, the Central Everglades restoration projects. All of those restoration projects are very, very important to Florida. So thank you for that.    I wanted to remind everybody that we have this archaic law that does not allow us to buy sand from the Bahamas, and we are running out of sand in Florida, and I do not understand why we have that in the law. So I persist in saying that we have really got to do something about that.    And the third thing, which is very serious, and I brought this up with you last time, General Jackson, and, Mr. Chair, I really hope that maybe this committee could work with some of the other pertinent committees on this issue, which is the cost analysis that is used in evaluating these projects.    And I want to use an example, Port Everglades, which after 18 years finally we got the Chief's Report. Thank you for that. It was a lot of hard work, and I sat in the final review and I saw how many different people and committees, whatever, had to go through, and in that review I sat in there for hours and hours, and now I understand why almost it takes so long. Eighteen years was a little long.    Now we are learning that the Office of Management and Budget uses a completely different formula in terms of evaluating the benefit-cost analysis, and that could actually prevent the project from going forward. I would guess, although I have not looked at every single project, that this might be something that is a problem with other projects, too.    So my concern is not only that we might get our project stalled again, but my concern is this. Army Corps working on getting a Chief's Report for many, many years, with a lot of people, and it is costing millions of dollars, and you are using a different cost analysis than the Office of Management and Budget, and that just does not make any sense to me.    Because in a sense, they can say, ``All right. All of your 18 years of work,'' and now it is going to be three under the new law, ``is for naught.''    Have you given any thought to how we can try to resolve that situation?    General Jackson. Ma'am, I will tell you that we struggle with this. What is authorized in law for addressing a problem is a 1.0 BCR based on the current discount rate, and that changes very slightly over time. The budget-ability rate is different, as you described. It is based upon a 7-percent discount rate, which has a serious impact on BCR.    We have had discussions with OMB leadership about what other ways could we calculate investment decisions outside of the BCR, and so we are working with the administration to try to figure out what that might be.    And certainly this current administration and senior leadership is open to that if we can come up with something we can all live with.    If there are any good ideas that Congress has that can help us, we are all ears. We would like to be able to make it make more sense, but we also realize that the administration has tough budget decisions to make, as you do, and has to set some type of criteria to separate projects into what can and cannot be budgeted. I cannot speak for them, but we will certainly say we are working on this to the extent that we can at the levels that we are.</t>
@@ -554,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,1061 +638,1274 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
       <c r="H43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
       <c r="H44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21646.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21646.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412463</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gibbs</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400290</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Napolitano</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>409888</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Shuster</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
   </si>
   <si>
     <t>412410</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Webster</t>
@@ -608,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,1271 +656,1396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
